--- a/py12/student/226100501.xlsx
+++ b/py12/student/226100501.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,14 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$K$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Criteria" vbProcedure="false">Sheet1!$M$7:$P$8</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="166">
   <si>
     <t xml:space="preserve">员工信息表</t>
   </si>
@@ -207,6 +214,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">&gt;30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;10</t>
+  </si>
+  <si>
     <t xml:space="preserve">彭晓玲</t>
   </si>
   <si>
@@ -663,6 +676,12 @@
   <si>
     <t xml:space="preserve">PA927</t>
   </si>
+  <si>
+    <t xml:space="preserve">数值计数 - 职称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合计 结果</t>
+  </si>
 </sst>
 </file>
 
@@ -670,12 +689,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\年m\月;@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="yyyy\年m\月;@"/>
     <numFmt numFmtId="167" formatCode="h:mm:ss"/>
     <numFmt numFmtId="168" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -736,6 +755,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -747,11 +776,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFB3B3B3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -787,8 +816,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -816,8 +908,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -850,7 +960,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -858,11 +968,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -874,7 +984,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,15 +996,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -910,6 +1016,46 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -919,7 +1065,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -927,19 +1073,1754 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="常规_Sheet1" xfId="20"/>
+    <cellStyle name="透视表拐角" xfId="21"/>
+    <cellStyle name="透视表值" xfId="22"/>
+    <cellStyle name="透视表字段" xfId="23"/>
+    <cellStyle name="透视表类别" xfId="24"/>
+    <cellStyle name="透视表标题" xfId="25"/>
+    <cellStyle name="透视表结果" xfId="26"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D4758"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pt@label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>合计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>pt@categories</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>助工</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中级工</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>技术员</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>技师</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>技工</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>工程师</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>高级工程师</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>高级工</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pt@data 0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="18082834"/>
+        <c:axId val="86719597"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="18082834"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>职称</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86719597"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86719597"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>职称</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18082834"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4554720" y="0"/>
+        <a:ext cx="5769000" cy="3242160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="64" createdVersion="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:K66" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="员工姓名" numFmtId="0">
+      <sharedItems count="64">
+        <s v="蔡立"/>
+        <s v="曹吉武"/>
+        <s v="柴安琪"/>
+        <s v="陈德福"/>
+        <s v="陈华"/>
+        <s v="陈平"/>
+        <s v="陈小鹰"/>
+        <s v="陈小珍"/>
+        <s v="成晓升"/>
+        <s v="程俊"/>
+        <s v="程伟国"/>
+        <s v="程宗文"/>
+        <s v="单娟"/>
+        <s v="邓云"/>
+        <s v="董江波"/>
+        <s v="傅珊珊"/>
+        <s v="谷金力"/>
+        <s v="何再前"/>
+        <s v="胡孙权"/>
+        <s v="黄威"/>
+        <s v="黄芯"/>
+        <s v="贾丽娜"/>
+        <s v="简红强"/>
+        <s v="郎怀民"/>
+        <s v="厉峰"/>
+        <s v="刘念"/>
+        <s v="刘启立"/>
+        <s v="刘晓瑞"/>
+        <s v="陆东兵"/>
+        <s v="吕秀杰"/>
+        <s v="罗金梅"/>
+        <s v="罗颖"/>
+        <s v="毛莉"/>
+        <s v="明小莉"/>
+        <s v="彭晓玲"/>
+        <s v="齐明"/>
+        <s v="孙铎"/>
+        <s v="孙琪"/>
+        <s v="万基莹"/>
+        <s v="闻亚东"/>
+        <s v="邬小玲"/>
+        <s v="吴冬玉"/>
+        <s v="项文双"/>
+        <s v="肖凌云"/>
+        <s v="谢立红"/>
+        <s v="谢彦"/>
+        <s v="徐华"/>
+        <s v="徐小君"/>
+        <s v="杨青"/>
+        <s v="杨玉华"/>
+        <s v="姚小玮"/>
+        <s v="叶魏燕"/>
+        <s v="叶武"/>
+        <s v="余美祖"/>
+        <s v="张军艳"/>
+        <s v="张力宏"/>
+        <s v="张立娜"/>
+        <s v="张南玲"/>
+        <s v="张永和"/>
+        <s v="张雨生"/>
+        <s v="赵援"/>
+        <s v="钟华"/>
+        <s v="钟争秀"/>
+        <s v="周旻璐"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="员工代码" numFmtId="0">
+      <sharedItems count="62">
+        <s v="PA007"/>
+        <s v="PA013"/>
+        <s v="PA027"/>
+        <s v="PA101"/>
+        <s v="PA103"/>
+        <s v="PA125"/>
+        <s v="PA128"/>
+        <s v="PA204"/>
+        <s v="PA212"/>
+        <s v="PA216"/>
+        <s v="PA225"/>
+        <s v="PA301"/>
+        <s v="PA302"/>
+        <s v="PA304"/>
+        <s v="PA305"/>
+        <s v="PA306"/>
+        <s v="PA313"/>
+        <s v="PA325"/>
+        <s v="PA326"/>
+        <s v="PA327"/>
+        <s v="PA329"/>
+        <s v="PA330"/>
+        <s v="PA401"/>
+        <s v="PA402"/>
+        <s v="PA403"/>
+        <s v="PA405"/>
+        <s v="PA415"/>
+        <s v="PA425"/>
+        <s v="PA527"/>
+        <s v="PA529"/>
+        <s v="PA602"/>
+        <s v="PA604"/>
+        <s v="PA605"/>
+        <s v="PA613"/>
+        <s v="PA623"/>
+        <s v="PA625"/>
+        <s v="PA703"/>
+        <s v="PA706"/>
+        <s v="PA709"/>
+        <s v="PA711"/>
+        <s v="PA725"/>
+        <s v="PA802"/>
+        <s v="PA803"/>
+        <s v="PA804"/>
+        <s v="PA812"/>
+        <s v="PA815"/>
+        <s v="PA817"/>
+        <s v="PA818"/>
+        <s v="PA819"/>
+        <s v="PA826"/>
+        <s v="PA829"/>
+        <s v="PA902"/>
+        <s v="PA903"/>
+        <s v="PA907"/>
+        <s v="PA912"/>
+        <s v="PA913"/>
+        <s v="PA916"/>
+        <s v="PA917"/>
+        <s v="PA921"/>
+        <s v="PA922"/>
+        <s v="PA926"/>
+        <s v="PA927"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="升级员工代码" numFmtId="0">
+      <sharedItems count="62">
+        <s v="PA0007"/>
+        <s v="PA0013"/>
+        <s v="PA0027"/>
+        <s v="PA0101"/>
+        <s v="PA0103"/>
+        <s v="PA0125"/>
+        <s v="PA0128"/>
+        <s v="PA0204"/>
+        <s v="PA0212"/>
+        <s v="PA0216"/>
+        <s v="PA0225"/>
+        <s v="PA0301"/>
+        <s v="PA0302"/>
+        <s v="PA0304"/>
+        <s v="PA0305"/>
+        <s v="PA0306"/>
+        <s v="PA0313"/>
+        <s v="PA0325"/>
+        <s v="PA0326"/>
+        <s v="PA0327"/>
+        <s v="PA0329"/>
+        <s v="PA0330"/>
+        <s v="PA0401"/>
+        <s v="PA0402"/>
+        <s v="PA0403"/>
+        <s v="PA0405"/>
+        <s v="PA0415"/>
+        <s v="PA0425"/>
+        <s v="PA0527"/>
+        <s v="PA0529"/>
+        <s v="PA0602"/>
+        <s v="PA0604"/>
+        <s v="PA0605"/>
+        <s v="PA0613"/>
+        <s v="PA0623"/>
+        <s v="PA0625"/>
+        <s v="PA0703"/>
+        <s v="PA0706"/>
+        <s v="PA0709"/>
+        <s v="PA0711"/>
+        <s v="PA0725"/>
+        <s v="PA0802"/>
+        <s v="PA0803"/>
+        <s v="PA0804"/>
+        <s v="PA0812"/>
+        <s v="PA0815"/>
+        <s v="PA0817"/>
+        <s v="PA0818"/>
+        <s v="PA0819"/>
+        <s v="PA0826"/>
+        <s v="PA0829"/>
+        <s v="PA0902"/>
+        <s v="PA0903"/>
+        <s v="PA0907"/>
+        <s v="PA0912"/>
+        <s v="PA0913"/>
+        <s v="PA0916"/>
+        <s v="PA0917"/>
+        <s v="PA0921"/>
+        <s v="PA0922"/>
+        <s v="PA0926"/>
+        <s v="PA0927"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="性别" numFmtId="0">
+      <sharedItems count="2">
+        <s v="男"/>
+        <s v="女"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="出生年月" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1948-08-01T00:00:00" maxDate="1984-03-22T00:00:00" count="63">
+        <d v="1948-08-01T00:00:00"/>
+        <d v="1948-10-06T00:00:00"/>
+        <d v="1949-08-21T00:00:00"/>
+        <d v="1954-02-24T00:00:00"/>
+        <d v="1956-04-09T00:00:00"/>
+        <d v="1956-05-01T00:00:00"/>
+        <d v="1956-09-03T00:00:00"/>
+        <d v="1956-12-30T00:00:00"/>
+        <d v="1957-01-05T00:00:00"/>
+        <d v="1957-05-23T00:00:00"/>
+        <d v="1958-09-09T00:00:00"/>
+        <d v="1960-01-10T00:00:00"/>
+        <d v="1960-03-15T00:00:00"/>
+        <d v="1960-04-10T00:00:00"/>
+        <d v="1960-06-26T00:00:00"/>
+        <d v="1961-07-12T00:00:00"/>
+        <d v="1961-07-22T00:00:00"/>
+        <d v="1961-12-05T00:00:00"/>
+        <d v="1961-12-22T00:00:00"/>
+        <d v="1962-05-21T00:00:00"/>
+        <d v="1962-06-09T00:00:00"/>
+        <d v="1963-02-23T00:00:00"/>
+        <d v="1963-09-03T00:00:00"/>
+        <d v="1963-10-02T00:00:00"/>
+        <d v="1963-11-18T00:00:00"/>
+        <d v="1963-12-11T00:00:00"/>
+        <d v="1964-04-17T00:00:00"/>
+        <d v="1964-12-25T00:00:00"/>
+        <d v="1965-01-23T00:00:00"/>
+        <d v="1965-11-12T00:00:00"/>
+        <d v="1966-01-19T00:00:00"/>
+        <d v="1968-04-23T00:00:00"/>
+        <d v="1968-10-02T00:00:00"/>
+        <d v="1969-01-01T00:00:00"/>
+        <d v="1969-01-26T00:00:00"/>
+        <d v="1969-03-30T00:00:00"/>
+        <d v="1969-09-05T00:00:00"/>
+        <d v="1970-01-03T00:00:00"/>
+        <d v="1970-01-20T00:00:00"/>
+        <d v="1970-04-28T00:00:00"/>
+        <d v="1970-07-01T00:00:00"/>
+        <d v="1973-01-31T00:00:00"/>
+        <d v="1974-01-18T00:00:00"/>
+        <d v="1974-03-06T00:00:00"/>
+        <d v="1975-03-09T00:00:00"/>
+        <d v="1975-05-10T00:00:00"/>
+        <d v="1976-03-03T00:00:00"/>
+        <d v="1976-04-09T00:00:00"/>
+        <d v="1976-07-01T00:00:00"/>
+        <d v="1976-07-16T00:00:00"/>
+        <d v="1977-01-06T00:00:00"/>
+        <d v="1977-01-18T00:00:00"/>
+        <d v="1977-03-08T00:00:00"/>
+        <d v="1977-12-20T00:00:00"/>
+        <d v="1978-02-01T00:00:00"/>
+        <d v="1978-07-15T00:00:00"/>
+        <d v="1979-03-01T00:00:00"/>
+        <d v="1981-08-14T00:00:00"/>
+        <d v="1982-05-21T00:00:00"/>
+        <d v="1982-10-14T00:00:00"/>
+        <d v="1983-03-01T00:00:00"/>
+        <d v="1983-09-18T00:00:00"/>
+        <d v="1984-03-22T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="年龄" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="38" maxValue="73" count="28">
+        <n v="38"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="43"/>
+        <n v="44"/>
+        <n v="45"/>
+        <n v="46"/>
+        <n v="47"/>
+        <n v="48"/>
+        <n v="49"/>
+        <n v="51"/>
+        <n v="52"/>
+        <n v="53"/>
+        <n v="54"/>
+        <n v="56"/>
+        <n v="57"/>
+        <n v="58"/>
+        <n v="59"/>
+        <n v="60"/>
+        <n v="61"/>
+        <n v="62"/>
+        <n v="63"/>
+        <n v="64"/>
+        <n v="65"/>
+        <n v="66"/>
+        <n v="68"/>
+        <n v="72"/>
+        <n v="73"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="参加工作时间" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1969-08-01T00:00:00" maxDate="2006-05-01T00:00:00" count="53">
+        <d v="1969-08-01T00:00:00"/>
+        <d v="1969-10-01T00:00:00"/>
+        <d v="1970-01-01T00:00:00"/>
+        <d v="1973-02-01T00:00:00"/>
+        <d v="1975-05-01T00:00:00"/>
+        <d v="1978-01-01T00:00:00"/>
+        <d v="1978-04-01T00:00:00"/>
+        <d v="1978-05-01T00:00:00"/>
+        <d v="1978-09-01T00:00:00"/>
+        <d v="1980-04-01T00:00:00"/>
+        <d v="1980-07-01T00:00:00"/>
+        <d v="1980-12-01T00:00:00"/>
+        <d v="1982-01-01T00:00:00"/>
+        <d v="1982-05-01T00:00:00"/>
+        <d v="1983-03-01T00:00:00"/>
+        <d v="1983-04-01T00:00:00"/>
+        <d v="1983-08-01T00:00:00"/>
+        <d v="1983-10-01T00:00:00"/>
+        <d v="1984-06-01T00:00:00"/>
+        <d v="1984-07-01T00:00:00"/>
+        <d v="1984-08-01T00:00:00"/>
+        <d v="1984-12-01T00:00:00"/>
+        <d v="1985-09-01T00:00:00"/>
+        <d v="1985-09-02T00:00:00"/>
+        <d v="1986-07-01T00:00:00"/>
+        <d v="1987-01-01T00:00:00"/>
+        <d v="1987-01-02T00:00:00"/>
+        <d v="1987-11-01T00:00:00"/>
+        <d v="1987-12-01T00:00:00"/>
+        <d v="1988-04-01T00:00:00"/>
+        <d v="1988-08-01T00:00:00"/>
+        <d v="1988-09-01T00:00:00"/>
+        <d v="1989-07-01T00:00:00"/>
+        <d v="1991-03-01T00:00:00"/>
+        <d v="1991-08-01T00:00:00"/>
+        <d v="1991-10-01T00:00:00"/>
+        <d v="1992-04-01T00:00:00"/>
+        <d v="1992-08-02T00:00:00"/>
+        <d v="1992-09-01T00:00:00"/>
+        <d v="1995-07-01T00:00:00"/>
+        <d v="1995-08-01T00:00:00"/>
+        <d v="1995-08-03T00:00:00"/>
+        <d v="1996-08-01T00:00:00"/>
+        <d v="1997-08-01T00:00:00"/>
+        <d v="1998-08-01T00:00:00"/>
+        <d v="1999-08-01T00:00:00"/>
+        <d v="1999-08-02T00:00:00"/>
+        <d v="2000-08-01T00:00:00"/>
+        <d v="2000-08-02T00:00:00"/>
+        <d v="2002-08-01T00:00:00"/>
+        <d v="2004-08-01T00:00:00"/>
+        <d v="2005-08-01T00:00:00"/>
+        <d v="2006-05-01T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="工龄" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="52" count="28">
+        <n v="16"/>
+        <n v="17"/>
+        <n v="19"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="41"/>
+        <n v="42"/>
+        <n v="43"/>
+        <n v="44"/>
+        <n v="47"/>
+        <n v="49"/>
+        <n v="52"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="职称" numFmtId="0">
+      <sharedItems count="8">
+        <s v="高级工"/>
+        <s v="高级工程师"/>
+        <s v="工程师"/>
+        <s v="技工"/>
+        <s v="技师"/>
+        <s v="技术员"/>
+        <s v="中级工"/>
+        <s v="助工"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="岗位级别" numFmtId="0">
+      <sharedItems count="9">
+        <s v="1级"/>
+        <s v="2级"/>
+        <s v="3级"/>
+        <s v="4级"/>
+        <s v="5级"/>
+        <s v="6级"/>
+        <s v="7级"/>
+        <s v="8级"/>
+        <s v="9级"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="是否有资格评选高级工程师" numFmtId="0">
+      <sharedItems count="2">
+        <s v="FALSE"/>
+        <s v="TRUE"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="64">
+  <r>
+    <x v="32"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="53"/>
+    <x v="4"/>
+    <x v="40"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="54"/>
+    <x v="4"/>
+    <x v="47"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="16"/>
+    <x v="27"/>
+    <x v="14"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="49"/>
+    <x v="5"/>
+    <x v="43"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="16"/>
+    <x v="28"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="59"/>
+    <x v="1"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="20"/>
+    <x v="14"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="34"/>
+    <x v="12"/>
+    <x v="26"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="23"/>
+    <x v="11"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="39"/>
+    <x v="11"/>
+    <x v="36"/>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="51"/>
+    <x v="5"/>
+    <x v="45"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="16"/>
+    <x v="17"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="35"/>
+    <x v="12"/>
+    <x v="33"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="56"/>
+    <x v="3"/>
+    <x v="47"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="20"/>
+    <x v="6"/>
+    <x v="24"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="40"/>
+    <x v="10"/>
+    <x v="39"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="42"/>
+    <x v="8"/>
+    <x v="37"/>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="58"/>
+    <x v="1"/>
+    <x v="50"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="0"/>
+    <x v="61"/>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="23"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="0"/>
+    <x v="44"/>
+    <x v="7"/>
+    <x v="44"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="18"/>
+    <x v="21"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="1"/>
+    <x v="33"/>
+    <x v="12"/>
+    <x v="25"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="1"/>
+    <x v="43"/>
+    <x v="8"/>
+    <x v="41"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="1"/>
+    <x v="55"/>
+    <x v="3"/>
+    <x v="48"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="8"/>
+    <x v="23"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="22"/>
+    <x v="7"/>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="52"/>
+    <x v="5"/>
+    <x v="46"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="18"/>
+    <x v="24"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="57"/>
+    <x v="2"/>
+    <x v="49"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="14"/>
+    <x v="23"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="15"/>
+    <x v="30"/>
+    <x v="13"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="18"/>
+    <x v="19"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="17"/>
+    <x v="31"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="60"/>
+    <x v="1"/>
+    <x v="49"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="14"/>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="41"/>
+    <x v="9"/>
+    <x v="34"/>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="17"/>
+    <x v="13"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="19"/>
+    <x v="18"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="36"/>
+    <x v="11"/>
+    <x v="38"/>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="1"/>
+    <x v="47"/>
+    <x v="6"/>
+    <x v="42"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="11"/>
+    <x v="38"/>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="6"/>
+    <x v="44"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="17"/>
+    <x v="16"/>
+    <x v="18"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="21"/>
+    <x v="10"/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="1"/>
+    <x v="50"/>
+    <x v="5"/>
+    <x v="47"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="15"/>
+    <x v="32"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="50"/>
+    <x v="50"/>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="13"/>
+    <x v="29"/>
+    <x v="14"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="51"/>
+    <x v="51"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="25"/>
+    <x v="3"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="37"/>
+    <x v="11"/>
+    <x v="38"/>
+    <x v="9"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="53"/>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="54"/>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="12"/>
+    <x v="35"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="55"/>
+    <x v="55"/>
+    <x v="1"/>
+    <x v="46"/>
+    <x v="6"/>
+    <x v="45"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="56"/>
+    <x v="56"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="20"/>
+    <x v="12"/>
+    <x v="20"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="57"/>
+    <x v="57"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="58"/>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="24"/>
+    <x v="9"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="59"/>
+    <x v="59"/>
+    <x v="0"/>
+    <x v="48"/>
+    <x v="5"/>
+    <x v="43"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="60"/>
+    <x v="60"/>
+    <x v="0"/>
+    <x v="62"/>
+    <x v="0"/>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="61"/>
+    <x v="61"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="21"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
+  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
+      <items count="8">
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <dataFields count="1">
+    <dataField name="数值计数 - 职称*" fld="8" subtotal="count" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1050,11 +2931,17 @@
       <c r="J3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="14" t="str">
+        <f aca="false">IF(AND(H3&gt;20,I3="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
       <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="15" t="n">
+        <f aca="false">COUNTIF(D$3:D$66,"男")</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
@@ -1087,14 +2974,20 @@
       <c r="I4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="14"/>
+      <c r="K4" s="14" t="str">
+        <f aca="false">IF(AND(H4&gt;20,I4="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
       <c r="M4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="15" t="n">
+        <f aca="false">COUNTIF(I$3:I$66,"高级工程师")</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
@@ -1127,14 +3020,20 @@
       <c r="I5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14" t="str">
+        <f aca="false">IF(AND(H5&gt;20,I5="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
       <c r="M5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="15"/>
+      <c r="N5" s="15" t="n">
+        <f aca="false">COUNTIF(H$3:H$66,"&gt;=10")</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -1167,10 +3066,13 @@
       <c r="I6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="14" t="str">
+        <f aca="false">IF(AND(H6&gt;20,I6="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -1203,10 +3105,25 @@
       <c r="I7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="14" t="str">
+        <f aca="false">IF(AND(H7&gt;20,I7="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -1239,17 +3156,32 @@
       <c r="I8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="14" t="str">
+        <f aca="false">IF(AND(H8&gt;20,I8="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="str">
         <f aca="false">REPLACE(B9,3,0,0)</f>
@@ -1273,19 +3205,22 @@
         <v>39</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="14" t="str">
+        <f aca="false">IF(AND(H9&gt;20,I9="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8" t="str">
         <f aca="false">REPLACE(B10,3,0,0)</f>
@@ -1311,17 +3246,20 @@
       <c r="I10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="14" t="str">
+        <f aca="false">IF(AND(H10&gt;20,I10="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8" t="str">
         <f aca="false">REPLACE(B11,3,0,0)</f>
@@ -1345,19 +3283,22 @@
         <v>41</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="14" t="str">
+        <f aca="false">IF(AND(H11&gt;20,I11="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8" t="str">
         <f aca="false">REPLACE(B12,3,0,0)</f>
@@ -1383,17 +3324,20 @@
       <c r="I12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="14" t="str">
+        <f aca="false">IF(AND(H12&gt;20,I12="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="8" t="str">
         <f aca="false">REPLACE(B13,3,0,0)</f>
@@ -1417,19 +3361,22 @@
         <v>22</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="14" t="str">
+        <f aca="false">IF(AND(H13&gt;20,I13="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="8" t="str">
         <f aca="false">REPLACE(B14,3,0,0)</f>
@@ -1455,17 +3402,20 @@
       <c r="I14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="14" t="str">
+        <f aca="false">IF(AND(H14&gt;20,I14="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="8" t="str">
         <f aca="false">REPLACE(B15,3,0,0)</f>
@@ -1489,19 +3439,22 @@
         <v>52</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="14" t="str">
+        <f aca="false">IF(AND(H15&gt;20,I15="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" s="8" t="str">
         <f aca="false">REPLACE(B16,3,0,0)</f>
@@ -1525,19 +3478,22 @@
         <v>31</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="14" t="str">
+        <f aca="false">IF(AND(H16&gt;20,I16="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" s="8" t="str">
         <f aca="false">REPLACE(B17,3,0,0)</f>
@@ -1563,17 +3519,20 @@
       <c r="I17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="14" t="str">
+        <f aca="false">IF(AND(H17&gt;20,I17="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" s="8" t="str">
         <f aca="false">REPLACE(B18,3,0,0)</f>
@@ -1597,19 +3556,22 @@
         <v>44</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="14" t="str">
+        <f aca="false">IF(AND(H18&gt;20,I18="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" s="8" t="str">
         <f aca="false">REPLACE(B19,3,0,0)</f>
@@ -1635,23 +3597,26 @@
       <c r="I19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="14" t="str">
+        <f aca="false">IF(AND(H19&gt;20,I19="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="8" t="str">
         <f aca="false">REPLACE(B20,3,0,0)</f>
         <v>PA0602</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="17" t="n">
@@ -1671,17 +3636,20 @@
       <c r="I20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="14"/>
+      <c r="K20" s="14" t="str">
+        <f aca="false">IF(AND(H20&gt;20,I20="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C21" s="8" t="str">
         <f aca="false">REPLACE(B21,3,0,0)</f>
@@ -1707,17 +3675,20 @@
       <c r="I21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="14"/>
+      <c r="J21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="14" t="str">
+        <f aca="false">IF(AND(H21&gt;20,I21="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="8" t="str">
         <f aca="false">REPLACE(B22,3,0,0)</f>
@@ -1743,17 +3714,20 @@
       <c r="I22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="14"/>
+      <c r="K22" s="14" t="str">
+        <f aca="false">IF(AND(H22&gt;20,I22="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8" t="str">
         <f aca="false">REPLACE(B23,3,0,0)</f>
@@ -1777,19 +3751,22 @@
         <v>44</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="14"/>
+      <c r="K23" s="14" t="str">
+        <f aca="false">IF(AND(H23&gt;20,I23="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" s="8" t="str">
         <f aca="false">REPLACE(B24,3,0,0)</f>
@@ -1813,19 +3790,22 @@
         <v>23</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="14" t="str">
+        <f aca="false">IF(AND(H24&gt;20,I24="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="8" t="str">
         <f aca="false">REPLACE(B25,3,0,0)</f>
@@ -1849,19 +3829,22 @@
         <v>37</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="14" t="str">
+        <f aca="false">IF(AND(H25&gt;20,I25="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="8" t="str">
         <f aca="false">REPLACE(B26,3,0,0)</f>
@@ -1887,17 +3870,20 @@
       <c r="I26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="14" t="str">
+        <f aca="false">IF(AND(H26&gt;20,I26="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27" s="8" t="str">
         <f aca="false">REPLACE(B27,3,0,0)</f>
@@ -1921,19 +3907,22 @@
         <v>35</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="14" t="str">
+        <f aca="false">IF(AND(H27&gt;20,I27="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="8" t="str">
         <f aca="false">REPLACE(B28,3,0,0)</f>
@@ -1959,17 +3948,20 @@
       <c r="I28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="14" t="str">
+        <f aca="false">IF(AND(H28&gt;20,I28="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C29" s="8" t="str">
         <f aca="false">REPLACE(B29,3,0,0)</f>
@@ -1993,19 +3985,22 @@
         <v>21</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="14" t="str">
+        <f aca="false">IF(AND(H29&gt;20,I29="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C30" s="8" t="str">
         <f aca="false">REPLACE(B30,3,0,0)</f>
@@ -2029,19 +4024,22 @@
         <v>43</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="14" t="str">
+        <f aca="false">IF(AND(H30&gt;20,I30="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" s="8" t="str">
         <f aca="false">REPLACE(B31,3,0,0)</f>
@@ -2067,17 +4065,20 @@
       <c r="I31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="K31" s="14"/>
+      <c r="J31" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="14" t="str">
+        <f aca="false">IF(AND(H31&gt;20,I31="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="8" t="str">
         <f aca="false">REPLACE(B32,3,0,0)</f>
@@ -2103,23 +4104,26 @@
       <c r="I32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="14"/>
+      <c r="K32" s="14" t="str">
+        <f aca="false">IF(AND(H32&gt;20,I32="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C33" s="8" t="str">
         <f aca="false">REPLACE(B33,3,0,0)</f>
         <v>PA0101</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="17" t="n">
@@ -2139,14 +4143,17 @@
       <c r="I33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="14"/>
+      <c r="K33" s="14" t="str">
+        <f aca="false">IF(AND(H33&gt;20,I33="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>21</v>
@@ -2175,17 +4182,20 @@
       <c r="I34" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="14"/>
+      <c r="J34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="14" t="str">
+        <f aca="false">IF(AND(H34&gt;20,I34="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C35" s="8" t="str">
         <f aca="false">REPLACE(B35,3,0,0)</f>
@@ -2211,23 +4221,26 @@
       <c r="I35" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="14"/>
+      <c r="J35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="14" t="str">
+        <f aca="false">IF(AND(H35&gt;20,I35="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C36" s="8" t="str">
         <f aca="false">REPLACE(B36,3,0,0)</f>
         <v>PA0225</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="17" t="n">
@@ -2247,17 +4260,20 @@
       <c r="I36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="14"/>
+      <c r="K36" s="14" t="str">
+        <f aca="false">IF(AND(H36&gt;20,I36="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C37" s="8" t="str">
         <f aca="false">REPLACE(B37,3,0,0)</f>
@@ -2283,23 +4299,26 @@
       <c r="I37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K37" s="14"/>
+      <c r="K37" s="14" t="str">
+        <f aca="false">IF(AND(H37&gt;20,I37="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C38" s="8" t="str">
         <f aca="false">REPLACE(B38,3,0,0)</f>
         <v>PA0302</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="17" t="n">
@@ -2319,17 +4338,20 @@
       <c r="I38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="14"/>
+      <c r="K38" s="14" t="str">
+        <f aca="false">IF(AND(H38&gt;20,I38="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C39" s="8" t="str">
         <f aca="false">REPLACE(B39,3,0,0)</f>
@@ -2355,17 +4377,20 @@
       <c r="I39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K39" s="14"/>
+      <c r="J39" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" s="14" t="str">
+        <f aca="false">IF(AND(H39&gt;20,I39="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C40" s="8" t="str">
         <f aca="false">REPLACE(B40,3,0,0)</f>
@@ -2389,25 +4414,28 @@
         <v>36</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="14" t="str">
+        <f aca="false">IF(AND(H40&gt;20,I40="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C41" s="8" t="str">
         <f aca="false">REPLACE(B41,3,0,0)</f>
         <v>PA0306</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="17" t="n">
@@ -2427,17 +4455,20 @@
       <c r="I41" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="14"/>
+      <c r="K41" s="14" t="str">
+        <f aca="false">IF(AND(H41&gt;20,I41="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42" s="8" t="str">
         <f aca="false">REPLACE(B42,3,0,0)</f>
@@ -2461,19 +4492,22 @@
         <v>40</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="14" t="str">
+        <f aca="false">IF(AND(H42&gt;20,I42="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C43" s="8" t="str">
         <f aca="false">REPLACE(B43,3,0,0)</f>
@@ -2499,17 +4533,20 @@
       <c r="I43" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K43" s="14"/>
+      <c r="K43" s="14" t="str">
+        <f aca="false">IF(AND(H43&gt;20,I43="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C44" s="8" t="str">
         <f aca="false">REPLACE(B44,3,0,0)</f>
@@ -2533,19 +4570,22 @@
         <v>39</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="14" t="str">
+        <f aca="false">IF(AND(H44&gt;20,I44="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C45" s="8" t="str">
         <f aca="false">REPLACE(B45,3,0,0)</f>
@@ -2571,17 +4611,20 @@
       <c r="I45" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K45" s="14"/>
+      <c r="K45" s="14" t="str">
+        <f aca="false">IF(AND(H45&gt;20,I45="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C46" s="8" t="str">
         <f aca="false">REPLACE(B46,3,0,0)</f>
@@ -2607,23 +4650,26 @@
       <c r="I46" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="14"/>
+      <c r="K46" s="14" t="str">
+        <f aca="false">IF(AND(H46&gt;20,I46="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C47" s="8" t="str">
         <f aca="false">REPLACE(B47,3,0,0)</f>
         <v>PA0803</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="17" t="n">
@@ -2643,23 +4689,26 @@
       <c r="I47" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K47" s="14"/>
+      <c r="K47" s="14" t="str">
+        <f aca="false">IF(AND(H47&gt;20,I47="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C48" s="8" t="str">
         <f aca="false">REPLACE(B48,3,0,0)</f>
         <v>PA0804</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="17" t="n">
@@ -2677,19 +4726,22 @@
         <v>23</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48" s="14" t="str">
+        <f aca="false">IF(AND(H48&gt;20,I48="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C49" s="8" t="str">
         <f aca="false">REPLACE(B49,3,0,0)</f>
@@ -2715,23 +4767,26 @@
       <c r="I49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="19" t="s">
+      <c r="J49" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="14"/>
+      <c r="K49" s="14" t="str">
+        <f aca="false">IF(AND(H49&gt;20,I49="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C50" s="8" t="str">
         <f aca="false">REPLACE(B50,3,0,0)</f>
         <v>PA0815</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="17" t="n">
@@ -2751,23 +4806,26 @@
       <c r="I50" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J50" s="19" t="s">
+      <c r="J50" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="14"/>
+      <c r="K50" s="14" t="str">
+        <f aca="false">IF(AND(H50&gt;20,I50="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C51" s="8" t="str">
         <f aca="false">REPLACE(B51,3,0,0)</f>
         <v>PA0817</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="17" t="n">
@@ -2785,19 +4843,22 @@
         <v>52</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K51" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="14" t="str">
+        <f aca="false">IF(AND(H51&gt;20,I51="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C52" s="8" t="str">
         <f aca="false">REPLACE(B52,3,0,0)</f>
@@ -2821,25 +4882,28 @@
         <v>52</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52" s="14" t="str">
+        <f aca="false">IF(AND(H52&gt;20,I52="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C53" s="8" t="str">
         <f aca="false">REPLACE(B53,3,0,0)</f>
         <v>PA0819</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="17" t="n">
@@ -2859,23 +4923,26 @@
       <c r="I53" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J53" s="19" t="s">
+      <c r="J53" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K53" s="14"/>
+      <c r="K53" s="14" t="str">
+        <f aca="false">IF(AND(H53&gt;20,I53="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C54" s="8" t="str">
         <f aca="false">REPLACE(B54,3,0,0)</f>
         <v>PA0826</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="17" t="n">
@@ -2895,23 +4962,26 @@
       <c r="I54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J54" s="19" t="s">
+      <c r="J54" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K54" s="14"/>
+      <c r="K54" s="14" t="str">
+        <f aca="false">IF(AND(H54&gt;20,I54="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C55" s="8" t="str">
         <f aca="false">REPLACE(B55,3,0,0)</f>
         <v>PA0829</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="17" t="n">
@@ -2931,17 +5001,20 @@
       <c r="I55" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J55" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K55" s="14"/>
+      <c r="J55" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K55" s="14" t="str">
+        <f aca="false">IF(AND(H55&gt;20,I55="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C56" s="8" t="str">
         <f aca="false">REPLACE(B56,3,0,0)</f>
@@ -2967,23 +5040,26 @@
       <c r="I56" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="J56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K56" s="14"/>
+      <c r="K56" s="14" t="str">
+        <f aca="false">IF(AND(H56&gt;20,I56="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C57" s="8" t="str">
         <f aca="false">REPLACE(B57,3,0,0)</f>
         <v>PA0903</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E57" s="17" t="n">
@@ -3003,23 +5079,26 @@
       <c r="I57" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K57" s="14"/>
+      <c r="J57" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="14" t="str">
+        <f aca="false">IF(AND(H57&gt;20,I57="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C58" s="8" t="str">
         <f aca="false">REPLACE(B58,3,0,0)</f>
         <v>PA0907</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="17" t="n">
@@ -3037,19 +5116,22 @@
         <v>52</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K58" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58" s="14" t="str">
+        <f aca="false">IF(AND(H58&gt;20,I58="工程师"),"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C59" s="8" t="str">
         <f aca="false">REPLACE(B59,3,0,0)</f>
@@ -3075,23 +5157,26 @@
       <c r="I59" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J59" s="19" t="s">
+      <c r="J59" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K59" s="14"/>
+      <c r="K59" s="14" t="str">
+        <f aca="false">IF(AND(H59&gt;20,I59="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C60" s="8" t="str">
         <f aca="false">REPLACE(B60,3,0,0)</f>
         <v>PA0913</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="17" t="n">
@@ -3111,17 +5196,20 @@
       <c r="I60" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K60" s="14"/>
+      <c r="J60" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K60" s="14" t="str">
+        <f aca="false">IF(AND(H60&gt;20,I60="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C61" s="8" t="str">
         <f aca="false">REPLACE(B61,3,0,0)</f>
@@ -3147,17 +5235,20 @@
       <c r="I61" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="19" t="s">
+      <c r="J61" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="14"/>
+      <c r="K61" s="14" t="str">
+        <f aca="false">IF(AND(H61&gt;20,I61="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C62" s="8" t="str">
         <f aca="false">REPLACE(B62,3,0,0)</f>
@@ -3183,17 +5274,20 @@
       <c r="I62" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J62" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="K62" s="14"/>
+      <c r="J62" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62" s="14" t="str">
+        <f aca="false">IF(AND(H62&gt;20,I62="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C63" s="8" t="str">
         <f aca="false">REPLACE(B63,3,0,0)</f>
@@ -3217,19 +5311,22 @@
         <v>42</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J63" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K63" s="14"/>
+      <c r="K63" s="14" t="str">
+        <f aca="false">IF(AND(H63&gt;20,I63="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C64" s="8" t="str">
         <f aca="false">REPLACE(B64,3,0,0)</f>
@@ -3255,17 +5352,20 @@
       <c r="I64" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K64" s="14"/>
+      <c r="J64" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K64" s="14" t="str">
+        <f aca="false">IF(AND(H64&gt;20,I64="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C65" s="8" t="str">
         <f aca="false">REPLACE(B65,3,0,0)</f>
@@ -3291,17 +5391,20 @@
       <c r="I65" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="19" t="s">
+      <c r="J65" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K65" s="14"/>
+      <c r="K65" s="14" t="str">
+        <f aca="false">IF(AND(H65&gt;20,I65="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C66" s="8" t="str">
         <f aca="false">REPLACE(B66,3,0,0)</f>
@@ -3327,10 +5430,13 @@
       <c r="I66" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J66" s="19" t="s">
+      <c r="J66" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K66" s="14"/>
+      <c r="K66" s="14" t="str">
+        <f aca="false">IF(AND(H66&gt;20,I66="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3351,14 +5457,472 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f aca="false">REPLACE(B3,3,0,0)</f>
+        <v>PA0128</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="17" t="n">
+        <v>23333</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(E3,NOW()))</f>
+        <v>58</v>
+      </c>
+      <c r="G3" s="17" t="n">
+        <v>32082</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(G3,NOW()))</f>
+        <v>34</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="14" t="str">
+        <f aca="false">IF(AND(H3&gt;20,I3="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f aca="false">REPLACE(B4,3,0,0)</f>
+        <v>PA0405</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>28915</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(E4,NOW()))</f>
+        <v>43</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>36739</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(G4,NOW()))</f>
+        <v>21</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="14" t="str">
+        <f aca="false">IF(AND(H4&gt;20,I4="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f aca="false">REPLACE(B5,3,0,0)</f>
+        <v>PA0602</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>27047</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(E5,NOW()))</f>
+        <v>48</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>33818</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(G5,NOW()))</f>
+        <v>29</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="14" t="str">
+        <f aca="false">IF(AND(H5&gt;20,I5="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f aca="false">REPLACE(B6,3,0,0)</f>
+        <v>PA0605</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>30577</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(E6,NOW()))</f>
+        <v>38</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>38200</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(G6,NOW()))</f>
+        <v>17</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="14" t="str">
+        <f aca="false">IF(AND(H6&gt;20,I6="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f aca="false">REPLACE(B7,3,0,0)</f>
+        <v>PA0225</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>23736</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(E7,NOW()))</f>
+        <v>57</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <v>32356</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(G7,NOW()))</f>
+        <v>33</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="14" t="str">
+        <f aca="false">IF(AND(H7&gt;20,I7="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f aca="false">REPLACE(B8,3,0,0)</f>
+        <v>PA0306</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>26695</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(E8,NOW()))</f>
+        <v>49</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>33451</v>
+      </c>
+      <c r="H8" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(G8,NOW()))</f>
+        <v>30</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="14" t="str">
+        <f aca="false">IF(AND(H8&gt;20,I8="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f aca="false">REPLACE(B9,3,0,0)</f>
+        <v>PA0725</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>25451</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(E9,NOW()))</f>
+        <v>52</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>33848</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(G9,NOW()))</f>
+        <v>29</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="14" t="str">
+        <f aca="false">IF(AND(H9&gt;20,I9="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f aca="false">REPLACE(B10,3,0,0)</f>
+        <v>PA0803</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>25588</v>
+      </c>
+      <c r="F10" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(E10,NOW()))</f>
+        <v>52</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>33848</v>
+      </c>
+      <c r="H10" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(G10,NOW()))</f>
+        <v>29</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="14" t="str">
+        <f aca="false">IF(AND(H10&gt;20,I10="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f aca="false">REPLACE(B11,3,0,0)</f>
+        <v>PA0829</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>24951</v>
+      </c>
+      <c r="F11" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(E11,NOW()))</f>
+        <v>54</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>32234</v>
+      </c>
+      <c r="H11" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(G11,NOW()))</f>
+        <v>34</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="14" t="str">
+        <f aca="false">IF(AND(H11&gt;20,I11="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f aca="false">REPLACE(B12,3,0,0)</f>
+        <v>PA0922</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>27942</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(E12,NOW()))</f>
+        <v>45</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <v>35643</v>
+      </c>
+      <c r="H12" s="11" t="n">
+        <f aca="true">INT(YEARFRAC(G12,NOW()))</f>
+        <v>24</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="14" t="str">
+        <f aca="false">IF(AND(H12&gt;20,I12="工程师"),"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3374,14 +5938,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="25" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="30" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="31"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3389,6 +6042,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3399,17 +6053,17 @@
   </sheetPr>
   <dimension ref="B1:C1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="23" t="n">
+      <c r="B1" s="32" t="n">
         <v>0.576134259259259</v>
       </c>
-      <c r="C1" s="24" t="n">
+      <c r="C1" s="33" t="n">
         <f aca="false">MROUND(B1,"0:15")</f>
         <v>0.572916666666667</v>
       </c>
